--- a/data/option_data/call/AMD.xlsx
+++ b/data/option_data/call/AMD.xlsx
@@ -582,22 +582,22 @@
         <v>40</v>
       </c>
       <c r="F2">
-        <v>54.5</v>
+        <v>53.15</v>
       </c>
       <c r="G2">
-        <v>54.1</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <v>40</v>
       </c>
       <c r="I2">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="K2">
-        <v>0.5756878369140624</v>
+        <v>1E-05</v>
       </c>
       <c r="L2" t="b">
         <v>1</v>
@@ -623,19 +623,19 @@
         <v>51.85</v>
       </c>
       <c r="G3">
-        <v>51.3</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>42.5</v>
       </c>
       <c r="I3">
-        <v>53.4</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>2</v>
       </c>
       <c r="K3">
-        <v>0.5300339965820313</v>
+        <v>1E-05</v>
       </c>
       <c r="L3" t="b">
         <v>1</v>
@@ -661,19 +661,19 @@
         <v>52.7</v>
       </c>
       <c r="G4">
-        <v>49.55</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <v>45</v>
       </c>
       <c r="I4">
-        <v>51.9</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>1</v>
       </c>
       <c r="K4">
-        <v>0.5404098693847659</v>
+        <v>1E-05</v>
       </c>
       <c r="L4" t="b">
         <v>1</v>
@@ -699,19 +699,19 @@
         <v>50</v>
       </c>
       <c r="G5">
-        <v>46.5</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>47.5</v>
       </c>
       <c r="I5">
-        <v>51.5</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>1</v>
       </c>
       <c r="K5">
-        <v>0.5417526293945314</v>
+        <v>1E-05</v>
       </c>
       <c r="L5" t="b">
         <v>1</v>
@@ -734,22 +734,22 @@
         <v>50</v>
       </c>
       <c r="F6">
-        <v>47.85</v>
+        <v>46.2</v>
       </c>
       <c r="G6">
-        <v>45.45</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <v>50</v>
       </c>
       <c r="I6">
-        <v>48.7</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K6">
-        <v>0.5325974475097657</v>
+        <v>1E-05</v>
       </c>
       <c r="L6" t="b">
         <v>1</v>
@@ -772,22 +772,22 @@
         <v>55</v>
       </c>
       <c r="F7">
-        <v>43.9</v>
+        <v>42.1</v>
       </c>
       <c r="G7">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="H7">
         <v>55</v>
       </c>
       <c r="I7">
-        <v>45.35</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K7">
-        <v>0.5271043383789062</v>
+        <v>1E-05</v>
       </c>
       <c r="L7" t="b">
         <v>1</v>
@@ -810,22 +810,22 @@
         <v>60</v>
       </c>
       <c r="F8">
-        <v>40.8</v>
+        <v>39</v>
       </c>
       <c r="G8">
-        <v>39.7</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <v>60</v>
       </c>
       <c r="I8">
-        <v>40.75</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="K8">
-        <v>0.5141039801025391</v>
+        <v>1E-05</v>
       </c>
       <c r="L8" t="b">
         <v>1</v>
@@ -851,19 +851,19 @@
         <v>37.9</v>
       </c>
       <c r="G9">
-        <v>36.15</v>
+        <v>0</v>
       </c>
       <c r="H9">
         <v>65</v>
       </c>
       <c r="I9">
-        <v>39.8</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>12</v>
       </c>
       <c r="K9">
-        <v>0.5308884802246094</v>
+        <v>1E-05</v>
       </c>
       <c r="L9" t="b">
         <v>1</v>
@@ -886,22 +886,22 @@
         <v>67.5</v>
       </c>
       <c r="F10">
-        <v>36.5</v>
+        <v>34.8</v>
       </c>
       <c r="G10">
-        <v>35.15</v>
+        <v>0</v>
       </c>
       <c r="H10">
         <v>67.5</v>
       </c>
       <c r="I10">
-        <v>37.3</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K10">
-        <v>0.5193224337768555</v>
+        <v>1E-05</v>
       </c>
       <c r="L10" t="b">
         <v>1</v>
@@ -924,22 +924,22 @@
         <v>70</v>
       </c>
       <c r="F11">
-        <v>35.75</v>
+        <v>33.5</v>
       </c>
       <c r="G11">
-        <v>33.95</v>
+        <v>0</v>
       </c>
       <c r="H11">
         <v>70</v>
       </c>
       <c r="I11">
-        <v>37.25</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="K11">
-        <v>0.5363510720825196</v>
+        <v>1E-05</v>
       </c>
       <c r="L11" t="b">
         <v>1</v>
@@ -965,19 +965,19 @@
         <v>35.25</v>
       </c>
       <c r="G12">
-        <v>31.7</v>
+        <v>0</v>
       </c>
       <c r="H12">
         <v>72.5</v>
       </c>
       <c r="I12">
-        <v>35.95</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>2</v>
       </c>
       <c r="K12">
-        <v>0.522343643798828</v>
+        <v>1E-05</v>
       </c>
       <c r="L12" t="b">
         <v>1</v>
@@ -1000,22 +1000,22 @@
         <v>75</v>
       </c>
       <c r="F13">
-        <v>32.7</v>
+        <v>31.35</v>
       </c>
       <c r="G13">
-        <v>32.3</v>
+        <v>0</v>
       </c>
       <c r="H13">
         <v>75</v>
       </c>
       <c r="I13">
-        <v>33.6</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>121</v>
+        <v>3</v>
       </c>
       <c r="K13">
-        <v>0.5298203756713868</v>
+        <v>1E-05</v>
       </c>
       <c r="L13" t="b">
         <v>1</v>
@@ -1038,22 +1038,22 @@
         <v>77.5</v>
       </c>
       <c r="F14">
-        <v>31.82</v>
+        <v>30.05</v>
       </c>
       <c r="G14">
-        <v>31.25</v>
+        <v>0</v>
       </c>
       <c r="H14">
         <v>77.5</v>
       </c>
       <c r="I14">
-        <v>32.6</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K14">
-        <v>0.5322922747802734</v>
+        <v>1E-05</v>
       </c>
       <c r="L14" t="b">
         <v>1</v>
@@ -1076,22 +1076,22 @@
         <v>80</v>
       </c>
       <c r="F15">
-        <v>30.75</v>
+        <v>28.98</v>
       </c>
       <c r="G15">
-        <v>30.25</v>
+        <v>0</v>
       </c>
       <c r="H15">
         <v>80</v>
       </c>
       <c r="I15">
-        <v>30.95</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="K15">
-        <v>0.5267381311035157</v>
+        <v>1E-05</v>
       </c>
       <c r="L15" t="b">
         <v>1</v>
@@ -1117,19 +1117,19 @@
         <v>29.9</v>
       </c>
       <c r="G16">
-        <v>29.25</v>
+        <v>0</v>
       </c>
       <c r="H16">
         <v>82.5</v>
       </c>
       <c r="I16">
-        <v>30.2</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>6</v>
       </c>
       <c r="K16">
-        <v>0.5306443420410156</v>
+        <v>1E-05</v>
       </c>
       <c r="L16" t="b">
         <v>1</v>
@@ -1152,22 +1152,22 @@
         <v>85</v>
       </c>
       <c r="F17">
-        <v>28.58</v>
+        <v>27.3</v>
       </c>
       <c r="G17">
-        <v>28.4</v>
+        <v>0</v>
       </c>
       <c r="H17">
         <v>85</v>
       </c>
       <c r="I17">
-        <v>28.7</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="K17">
-        <v>0.5268907174682618</v>
+        <v>1E-05</v>
       </c>
       <c r="L17" t="b">
         <v>1</v>
@@ -1190,22 +1190,22 @@
         <v>87.5</v>
       </c>
       <c r="F18">
-        <v>27.5</v>
+        <v>26.3</v>
       </c>
       <c r="G18">
-        <v>27.05</v>
+        <v>0</v>
       </c>
       <c r="H18">
         <v>87.5</v>
       </c>
       <c r="I18">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="K18">
-        <v>0.5473372903442384</v>
+        <v>1E-05</v>
       </c>
       <c r="L18" t="b">
         <v>1</v>
@@ -1228,25 +1228,25 @@
         <v>90</v>
       </c>
       <c r="F19">
-        <v>26.57</v>
+        <v>25.53</v>
       </c>
       <c r="G19">
-        <v>26.5</v>
+        <v>0</v>
       </c>
       <c r="H19">
         <v>90</v>
       </c>
       <c r="I19">
-        <v>26.6</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="K19">
-        <v>0.5247850256347657</v>
+        <v>0.000132069091796875</v>
       </c>
       <c r="L19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1266,22 +1266,22 @@
         <v>92.5</v>
       </c>
       <c r="F20">
-        <v>25.82</v>
+        <v>24.78</v>
       </c>
       <c r="G20">
-        <v>25.5</v>
+        <v>0</v>
       </c>
       <c r="H20">
         <v>92.5</v>
       </c>
       <c r="I20">
-        <v>25.85</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>86</v>
+        <v>15</v>
       </c>
       <c r="K20">
-        <v>0.5252427847290039</v>
+        <v>0.0039162109375</v>
       </c>
       <c r="L20" t="b">
         <v>0</v>
@@ -1304,22 +1304,22 @@
         <v>95</v>
       </c>
       <c r="F21">
-        <v>24.8</v>
+        <v>23.2</v>
       </c>
       <c r="G21">
-        <v>22.55</v>
+        <v>0</v>
       </c>
       <c r="H21">
         <v>95</v>
       </c>
       <c r="I21">
-        <v>27.45</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>135</v>
+        <v>18</v>
       </c>
       <c r="K21">
-        <v>0.529148995666504</v>
+        <v>0.007822421875000001</v>
       </c>
       <c r="L21" t="b">
         <v>0</v>
@@ -1342,22 +1342,22 @@
         <v>97.5</v>
       </c>
       <c r="F22">
-        <v>24.8</v>
+        <v>22.93</v>
       </c>
       <c r="G22">
-        <v>23.95</v>
+        <v>0</v>
       </c>
       <c r="H22">
         <v>97.5</v>
       </c>
       <c r="I22">
-        <v>25.35</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="K22">
-        <v>0.5389450402832032</v>
+        <v>0.01563484375</v>
       </c>
       <c r="L22" t="b">
         <v>0</v>
@@ -1380,22 +1380,22 @@
         <v>100</v>
       </c>
       <c r="F23">
-        <v>23.2</v>
+        <v>23.15</v>
       </c>
       <c r="G23">
-        <v>23.2</v>
+        <v>0</v>
       </c>
       <c r="H23">
         <v>100</v>
       </c>
       <c r="I23">
-        <v>24.55</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>84</v>
+        <v>119</v>
       </c>
       <c r="K23">
-        <v>0.5393112475585939</v>
+        <v>0.01563484375</v>
       </c>
       <c r="L23" t="b">
         <v>0</v>
@@ -1418,22 +1418,22 @@
         <v>105</v>
       </c>
       <c r="F24">
-        <v>22.1</v>
+        <v>20.96</v>
       </c>
       <c r="G24">
-        <v>21.4</v>
+        <v>0</v>
       </c>
       <c r="H24">
         <v>105</v>
       </c>
       <c r="I24">
-        <v>22.2</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="K24">
-        <v>0.5277146838378908</v>
+        <v>0.0312596875</v>
       </c>
       <c r="L24" t="b">
         <v>0</v>
@@ -1456,22 +1456,22 @@
         <v>110</v>
       </c>
       <c r="F25">
-        <v>20.75</v>
+        <v>19.3</v>
       </c>
       <c r="G25">
-        <v>19.85</v>
+        <v>0</v>
       </c>
       <c r="H25">
         <v>110</v>
       </c>
       <c r="I25">
-        <v>20.95</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="K25">
-        <v>0.5275926147460939</v>
+        <v>0.0312596875</v>
       </c>
       <c r="L25" t="b">
         <v>0</v>
@@ -1494,22 +1494,22 @@
         <v>115</v>
       </c>
       <c r="F26">
-        <v>19.3</v>
+        <v>18.05</v>
       </c>
       <c r="G26">
-        <v>18.4</v>
+        <v>0</v>
       </c>
       <c r="H26">
         <v>115</v>
       </c>
       <c r="I26">
-        <v>19.3</v>
+        <v>0</v>
       </c>
       <c r="J26">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="K26">
-        <v>0.5224657128906249</v>
+        <v>0.0312596875</v>
       </c>
       <c r="L26" t="b">
         <v>0</v>
@@ -1532,22 +1532,22 @@
         <v>120</v>
       </c>
       <c r="F27">
-        <v>18.3</v>
+        <v>17</v>
       </c>
       <c r="G27">
-        <v>17.7</v>
+        <v>0</v>
       </c>
       <c r="H27">
         <v>120</v>
       </c>
       <c r="I27">
-        <v>18.3</v>
+        <v>0</v>
       </c>
       <c r="J27">
-        <v>11</v>
+        <v>183</v>
       </c>
       <c r="K27">
-        <v>0.5293320993041993</v>
+        <v>0.0312596875</v>
       </c>
       <c r="L27" t="b">
         <v>0</v>
@@ -1570,22 +1570,22 @@
         <v>125</v>
       </c>
       <c r="F28">
-        <v>16.85</v>
+        <v>16.1</v>
       </c>
       <c r="G28">
-        <v>16.4</v>
+        <v>0</v>
       </c>
       <c r="H28">
         <v>125</v>
       </c>
       <c r="I28">
-        <v>17.3</v>
+        <v>0</v>
       </c>
       <c r="J28">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="K28">
-        <v>0.5285691674804689</v>
+        <v>0.06250937500000001</v>
       </c>
       <c r="L28" t="b">
         <v>0</v>
@@ -1608,22 +1608,22 @@
         <v>130</v>
       </c>
       <c r="F29">
-        <v>15.8</v>
+        <v>16.25</v>
       </c>
       <c r="G29">
-        <v>15.7</v>
+        <v>0</v>
       </c>
       <c r="H29">
         <v>130</v>
       </c>
       <c r="I29">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="J29">
-        <v>56</v>
+        <v>95</v>
       </c>
       <c r="K29">
-        <v>0.5291795129394532</v>
+        <v>0.06250937500000001</v>
       </c>
       <c r="L29" t="b">
         <v>0</v>
@@ -1646,22 +1646,22 @@
         <v>135</v>
       </c>
       <c r="F30">
-        <v>15.55</v>
+        <v>14</v>
       </c>
       <c r="G30">
-        <v>14.5</v>
+        <v>0</v>
       </c>
       <c r="H30">
         <v>135</v>
       </c>
       <c r="I30">
-        <v>15.35</v>
+        <v>0</v>
       </c>
       <c r="J30">
-        <v>92</v>
+        <v>41</v>
       </c>
       <c r="K30">
-        <v>0.529850892944336</v>
+        <v>0.06250937500000001</v>
       </c>
       <c r="L30" t="b">
         <v>0</v>
@@ -1684,22 +1684,22 @@
         <v>140</v>
       </c>
       <c r="F31">
-        <v>14</v>
+        <v>12.99</v>
       </c>
       <c r="G31">
-        <v>13.7</v>
+        <v>0</v>
       </c>
       <c r="H31">
         <v>140</v>
       </c>
       <c r="I31">
-        <v>15.2</v>
+        <v>0</v>
       </c>
       <c r="J31">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="K31">
-        <v>0.5382736602783205</v>
+        <v>0.06250937500000001</v>
       </c>
       <c r="L31" t="b">
         <v>0</v>
@@ -1722,22 +1722,22 @@
         <v>145</v>
       </c>
       <c r="F32">
-        <v>13.35</v>
+        <v>12.3</v>
       </c>
       <c r="G32">
-        <v>12.1</v>
+        <v>0</v>
       </c>
       <c r="H32">
         <v>145</v>
       </c>
       <c r="I32">
-        <v>14.45</v>
+        <v>0</v>
       </c>
       <c r="J32">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="K32">
-        <v>0.5313157220458984</v>
+        <v>0.06250937500000001</v>
       </c>
       <c r="L32" t="b">
         <v>0</v>
@@ -1760,22 +1760,22 @@
         <v>150</v>
       </c>
       <c r="F33">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="G33">
-        <v>11.15</v>
+        <v>0</v>
       </c>
       <c r="H33">
         <v>150</v>
       </c>
       <c r="I33">
-        <v>13.8</v>
+        <v>0</v>
       </c>
       <c r="J33">
-        <v>33</v>
+        <v>299</v>
       </c>
       <c r="K33">
-        <v>0.5307664111328125</v>
+        <v>0.06250937500000001</v>
       </c>
       <c r="L33" t="b">
         <v>0</v>
@@ -1801,19 +1801,19 @@
         <v>12.34</v>
       </c>
       <c r="G34">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="H34">
         <v>155</v>
       </c>
       <c r="I34">
-        <v>13.7</v>
+        <v>0</v>
       </c>
       <c r="J34">
         <v>1</v>
       </c>
       <c r="K34">
-        <v>0.5379990048217774</v>
+        <v>0.06250937500000001</v>
       </c>
       <c r="L34" t="b">
         <v>0</v>
@@ -1839,19 +1839,19 @@
         <v>11.25</v>
       </c>
       <c r="G35">
-        <v>10.95</v>
+        <v>0</v>
       </c>
       <c r="H35">
         <v>160</v>
       </c>
       <c r="I35">
-        <v>11.8</v>
+        <v>0</v>
       </c>
       <c r="J35">
         <v>12</v>
       </c>
       <c r="K35">
-        <v>0.5369919348144532</v>
+        <v>0.06250937500000001</v>
       </c>
       <c r="L35" t="b">
         <v>0</v>
@@ -1877,19 +1877,19 @@
         <v>10.95</v>
       </c>
       <c r="G36">
-        <v>9.550000000000001</v>
+        <v>0</v>
       </c>
       <c r="H36">
         <v>165</v>
       </c>
       <c r="I36">
-        <v>11.6</v>
+        <v>0</v>
       </c>
       <c r="J36">
         <v>6</v>
       </c>
       <c r="K36">
-        <v>0.5333908966064453</v>
+        <v>0.06250937500000001</v>
       </c>
       <c r="L36" t="b">
         <v>0</v>
@@ -1912,22 +1912,22 @@
         <v>170</v>
       </c>
       <c r="F37">
-        <v>10</v>
+        <v>9.25</v>
       </c>
       <c r="G37">
-        <v>9.75</v>
+        <v>0</v>
       </c>
       <c r="H37">
         <v>170</v>
       </c>
       <c r="I37">
-        <v>11.4</v>
+        <v>0</v>
       </c>
       <c r="J37">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K37">
-        <v>0.5462386685180666</v>
+        <v>0.12500875</v>
       </c>
       <c r="L37" t="b">
         <v>0</v>
@@ -1953,19 +1953,19 @@
         <v>10</v>
       </c>
       <c r="G38">
-        <v>9.35</v>
+        <v>0</v>
       </c>
       <c r="H38">
         <v>175</v>
       </c>
       <c r="I38">
-        <v>10.35</v>
+        <v>0</v>
       </c>
       <c r="J38">
         <v>1</v>
       </c>
       <c r="K38">
-        <v>0.5426071130371095</v>
+        <v>0.12500875</v>
       </c>
       <c r="L38" t="b">
         <v>0</v>
@@ -1988,22 +1988,22 @@
         <v>180</v>
       </c>
       <c r="F39">
-        <v>9.199999999999999</v>
+        <v>9.15</v>
       </c>
       <c r="G39">
-        <v>8.9</v>
+        <v>0</v>
       </c>
       <c r="H39">
         <v>180</v>
       </c>
       <c r="I39">
-        <v>9.65</v>
+        <v>0</v>
       </c>
       <c r="J39">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="K39">
-        <v>0.5413864221191409</v>
+        <v>0.12500875</v>
       </c>
       <c r="L39" t="b">
         <v>0</v>
@@ -2026,22 +2026,22 @@
         <v>185</v>
       </c>
       <c r="F40">
-        <v>8.699999999999999</v>
+        <v>8</v>
       </c>
       <c r="G40">
-        <v>7.9</v>
+        <v>0</v>
       </c>
       <c r="H40">
         <v>185</v>
       </c>
       <c r="I40">
-        <v>9.85</v>
+        <v>0</v>
       </c>
       <c r="J40">
-        <v>54</v>
+        <v>221</v>
       </c>
       <c r="K40">
-        <v>0.5434615966796876</v>
+        <v>0.12500875</v>
       </c>
       <c r="L40" t="b">
         <v>0</v>

--- a/data/option_data/call/AMD.xlsx
+++ b/data/option_data/call/AMD.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="51">
   <si>
     <t>symbol</t>
   </si>
@@ -524,13 +524,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L40"/>
+  <dimension ref="A1:K40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -550,22 +550,19 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -582,28 +579,25 @@
         <v>40</v>
       </c>
       <c r="F2">
-        <v>53.15</v>
+        <v>51</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>51.2</v>
       </c>
       <c r="H2">
         <v>40</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>24</v>
-      </c>
-      <c r="K2">
-        <v>1E-05</v>
-      </c>
-      <c r="L2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0.5813640496826171</v>
+      </c>
+      <c r="K2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -623,25 +617,22 @@
         <v>51.85</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>48.2</v>
       </c>
       <c r="H3">
         <v>42.5</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J3">
-        <v>2</v>
-      </c>
-      <c r="K3">
-        <v>1E-05</v>
-      </c>
-      <c r="L3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0.5335740002441407</v>
+      </c>
+      <c r="K3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -658,28 +649,25 @@
         <v>45</v>
       </c>
       <c r="F4">
-        <v>52.7</v>
+        <v>47.5</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="H4">
         <v>45</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>1E-05</v>
-      </c>
-      <c r="L4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0.5266160620117188</v>
+      </c>
+      <c r="K4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -699,25 +687,22 @@
         <v>50</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>45.15</v>
       </c>
       <c r="H5">
         <v>47.5</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>1E-05</v>
-      </c>
-      <c r="L5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0.524418818359375</v>
+      </c>
+      <c r="K5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -734,28 +719,25 @@
         <v>50</v>
       </c>
       <c r="F6">
-        <v>46.2</v>
+        <v>43.6</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>44.05</v>
       </c>
       <c r="H6">
         <v>50</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J6">
-        <v>9</v>
-      </c>
-      <c r="K6">
-        <v>1E-05</v>
-      </c>
-      <c r="L6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0.5456588403320313</v>
+      </c>
+      <c r="K6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -772,28 +754,25 @@
         <v>55</v>
       </c>
       <c r="F7">
-        <v>42.1</v>
+        <v>40.7</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>39.95</v>
       </c>
       <c r="H7">
         <v>55</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>1E-05</v>
-      </c>
-      <c r="L7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0.5084888018798828</v>
+      </c>
+      <c r="K7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -810,28 +789,25 @@
         <v>60</v>
       </c>
       <c r="F8">
-        <v>39</v>
+        <v>37.65</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>37.4</v>
       </c>
       <c r="H8">
         <v>60</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J8">
-        <v>2</v>
-      </c>
-      <c r="K8">
-        <v>1E-05</v>
-      </c>
-      <c r="L8" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0.5134936346435546</v>
+      </c>
+      <c r="K8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -851,25 +827,22 @@
         <v>37.9</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>34.85</v>
       </c>
       <c r="H9">
         <v>65</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J9">
-        <v>12</v>
-      </c>
-      <c r="K9">
-        <v>1E-05</v>
-      </c>
-      <c r="L9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0.524418818359375</v>
+      </c>
+      <c r="K9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -889,25 +862,22 @@
         <v>34.8</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>33.65</v>
       </c>
       <c r="H10">
         <v>67.5</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10">
-        <v>1</v>
-      </c>
-      <c r="K10">
-        <v>1E-05</v>
-      </c>
-      <c r="L10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0.5187120883178712</v>
+      </c>
+      <c r="K10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -924,28 +894,25 @@
         <v>70</v>
       </c>
       <c r="F11">
-        <v>33.5</v>
+        <v>32.4</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>32.2</v>
       </c>
       <c r="H11">
         <v>70</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J11">
-        <v>11</v>
-      </c>
-      <c r="K11">
-        <v>1E-05</v>
-      </c>
-      <c r="L11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0.5172167419433593</v>
+      </c>
+      <c r="K11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -962,28 +929,25 @@
         <v>72.5</v>
       </c>
       <c r="F12">
-        <v>35.25</v>
+        <v>32.12</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>31.25</v>
       </c>
       <c r="H12">
         <v>72.5</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J12">
-        <v>2</v>
-      </c>
-      <c r="K12">
-        <v>1E-05</v>
-      </c>
-      <c r="L12" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0.5220995056152342</v>
+      </c>
+      <c r="K12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1000,28 +964,25 @@
         <v>75</v>
       </c>
       <c r="F13">
-        <v>31.35</v>
+        <v>30</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>29.95</v>
       </c>
       <c r="H13">
         <v>75</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13">
-        <v>3</v>
-      </c>
-      <c r="K13">
-        <v>1E-05</v>
-      </c>
-      <c r="L13" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0.5152636364746093</v>
+      </c>
+      <c r="K13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1038,28 +999,25 @@
         <v>77.5</v>
       </c>
       <c r="F14">
-        <v>30.05</v>
+        <v>28.67</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="H14">
         <v>77.5</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14">
-        <v>6</v>
-      </c>
-      <c r="K14">
-        <v>1E-05</v>
-      </c>
-      <c r="L14" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0.5188646746826171</v>
+      </c>
+      <c r="K14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1076,28 +1034,25 @@
         <v>80</v>
       </c>
       <c r="F15">
-        <v>28.98</v>
+        <v>27.9</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>27.9</v>
       </c>
       <c r="H15">
         <v>80</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="J15">
-        <v>180</v>
-      </c>
-      <c r="K15">
-        <v>1E-05</v>
-      </c>
-      <c r="L15" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0.5195970892333983</v>
+      </c>
+      <c r="K15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1114,28 +1069,25 @@
         <v>82.5</v>
       </c>
       <c r="F16">
-        <v>29.9</v>
+        <v>27</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>26.75</v>
       </c>
       <c r="H16">
         <v>82.5</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J16">
-        <v>6</v>
-      </c>
-      <c r="K16">
-        <v>1E-05</v>
-      </c>
-      <c r="L16" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0.5153551882934569</v>
+      </c>
+      <c r="K16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1152,28 +1104,25 @@
         <v>85</v>
       </c>
       <c r="F17">
-        <v>27.3</v>
+        <v>25.65</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>25.95</v>
       </c>
       <c r="H17">
         <v>85</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J17">
-        <v>9</v>
-      </c>
-      <c r="K17">
-        <v>1E-05</v>
-      </c>
-      <c r="L17" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0.5181322601318359</v>
+      </c>
+      <c r="K17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1190,28 +1139,25 @@
         <v>87.5</v>
       </c>
       <c r="F18">
-        <v>26.3</v>
+        <v>24.87</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>24.5</v>
       </c>
       <c r="H18">
         <v>87.5</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="J18">
-        <v>41</v>
-      </c>
-      <c r="K18">
-        <v>1E-05</v>
-      </c>
-      <c r="L18" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0.5123339782714844</v>
+      </c>
+      <c r="K18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1228,28 +1174,25 @@
         <v>90</v>
       </c>
       <c r="F19">
-        <v>25.53</v>
+        <v>24.32</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>24.1</v>
       </c>
       <c r="H19">
         <v>90</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="J19">
-        <v>82</v>
-      </c>
-      <c r="K19">
-        <v>0.000132069091796875</v>
-      </c>
-      <c r="L19" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0.5183153637695312</v>
+      </c>
+      <c r="K19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1266,28 +1209,25 @@
         <v>92.5</v>
       </c>
       <c r="F20">
-        <v>24.78</v>
+        <v>23.43</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>23.15</v>
       </c>
       <c r="H20">
         <v>92.5</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="J20">
-        <v>15</v>
-      </c>
-      <c r="K20">
-        <v>0.0039162109375</v>
-      </c>
-      <c r="L20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0.5174608801269531</v>
+      </c>
+      <c r="K20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1304,28 +1244,25 @@
         <v>95</v>
       </c>
       <c r="F21">
-        <v>23.2</v>
+        <v>22.36</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>22.3</v>
       </c>
       <c r="H21">
         <v>95</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="J21">
-        <v>18</v>
-      </c>
-      <c r="K21">
-        <v>0.007822421875000001</v>
-      </c>
-      <c r="L21" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0.5175219146728516</v>
+      </c>
+      <c r="K21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1342,28 +1279,25 @@
         <v>97.5</v>
       </c>
       <c r="F22">
-        <v>22.93</v>
+        <v>21.35</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>21.45</v>
       </c>
       <c r="H22">
         <v>97.5</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J22">
-        <v>15</v>
-      </c>
-      <c r="K22">
-        <v>0.01563484375</v>
-      </c>
-      <c r="L22" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0.5163622583007812</v>
+      </c>
+      <c r="K22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1380,28 +1314,25 @@
         <v>100</v>
       </c>
       <c r="F23">
-        <v>23.15</v>
+        <v>20.9</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>20.95</v>
       </c>
       <c r="H23">
         <v>100</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="J23">
-        <v>119</v>
-      </c>
-      <c r="K23">
-        <v>0.01563484375</v>
-      </c>
-      <c r="L23" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0.524418818359375</v>
+      </c>
+      <c r="K23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1418,28 +1349,25 @@
         <v>105</v>
       </c>
       <c r="F24">
-        <v>20.96</v>
+        <v>19.3</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>19.3</v>
       </c>
       <c r="H24">
         <v>105</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="J24">
-        <v>36</v>
-      </c>
-      <c r="K24">
-        <v>0.0312596875</v>
-      </c>
-      <c r="L24" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0.5173693283081054</v>
+      </c>
+      <c r="K24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1456,28 +1384,25 @@
         <v>110</v>
       </c>
       <c r="F25">
-        <v>19.3</v>
+        <v>18.35</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="H25">
         <v>110</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J25">
-        <v>27</v>
-      </c>
-      <c r="K25">
-        <v>0.0312596875</v>
-      </c>
-      <c r="L25" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
+        <v>0.5188951919555663</v>
+      </c>
+      <c r="K25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1494,28 +1419,25 @@
         <v>115</v>
       </c>
       <c r="F26">
-        <v>18.05</v>
+        <v>17.05</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>16.8</v>
       </c>
       <c r="H26">
         <v>115</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>261</v>
       </c>
       <c r="J26">
-        <v>44</v>
-      </c>
-      <c r="K26">
-        <v>0.0312596875</v>
-      </c>
-      <c r="L26" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
+        <v>0.5178270874023438</v>
+      </c>
+      <c r="K26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1532,28 +1454,25 @@
         <v>120</v>
       </c>
       <c r="F27">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>15.8</v>
       </c>
       <c r="H27">
         <v>120</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="J27">
-        <v>183</v>
-      </c>
-      <c r="K27">
-        <v>0.0312596875</v>
-      </c>
-      <c r="L27" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
+        <v>0.5220384710693358</v>
+      </c>
+      <c r="K27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1570,28 +1489,25 @@
         <v>125</v>
       </c>
       <c r="F28">
-        <v>16.1</v>
+        <v>14.9</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>14.6</v>
       </c>
       <c r="H28">
         <v>125</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="J28">
-        <v>39</v>
-      </c>
-      <c r="K28">
-        <v>0.06250937500000001</v>
-      </c>
-      <c r="L28" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
+        <v>0.5224657128906249</v>
+      </c>
+      <c r="K28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1608,28 +1524,25 @@
         <v>130</v>
       </c>
       <c r="F29">
-        <v>16.25</v>
+        <v>14</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>13.85</v>
       </c>
       <c r="H29">
         <v>130</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>149</v>
       </c>
       <c r="J29">
-        <v>95</v>
-      </c>
-      <c r="K29">
-        <v>0.06250937500000001</v>
-      </c>
-      <c r="L29" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
+        <v>0.5187120883178712</v>
+      </c>
+      <c r="K29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1646,28 +1559,25 @@
         <v>135</v>
       </c>
       <c r="F30">
-        <v>14</v>
+        <v>13.18</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>12.8</v>
       </c>
       <c r="H30">
         <v>135</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J30">
-        <v>41</v>
-      </c>
-      <c r="K30">
-        <v>0.06250937500000001</v>
-      </c>
-      <c r="L30" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12">
+        <v>0.5264329583740235</v>
+      </c>
+      <c r="K30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1684,28 +1594,25 @@
         <v>140</v>
       </c>
       <c r="F31">
-        <v>12.99</v>
+        <v>12.35</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>12.3</v>
       </c>
       <c r="H31">
         <v>140</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="J31">
-        <v>24</v>
-      </c>
-      <c r="K31">
-        <v>0.06250937500000001</v>
-      </c>
-      <c r="L31" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12">
+        <v>0.5218858847045899</v>
+      </c>
+      <c r="K31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1722,28 +1629,25 @@
         <v>145</v>
       </c>
       <c r="F32">
-        <v>12.3</v>
+        <v>11.45</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>11.2</v>
       </c>
       <c r="H32">
         <v>145</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J32">
-        <v>12</v>
-      </c>
-      <c r="K32">
-        <v>0.06250937500000001</v>
-      </c>
-      <c r="L32" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12">
+        <v>0.5266160620117188</v>
+      </c>
+      <c r="K32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1760,28 +1664,25 @@
         <v>150</v>
       </c>
       <c r="F33">
-        <v>12.3</v>
+        <v>11</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>10.6</v>
       </c>
       <c r="H33">
         <v>150</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="J33">
-        <v>299</v>
-      </c>
-      <c r="K33">
-        <v>0.06250937500000001</v>
-      </c>
-      <c r="L33" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12">
+        <v>0.5238084729003907</v>
+      </c>
+      <c r="K33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1798,28 +1699,25 @@
         <v>155</v>
       </c>
       <c r="F34">
-        <v>12.34</v>
+        <v>10.5</v>
       </c>
       <c r="G34">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H34">
         <v>155</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J34">
-        <v>1</v>
-      </c>
-      <c r="K34">
-        <v>0.06250937500000001</v>
-      </c>
-      <c r="L34" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12">
+        <v>0.5296983065795901</v>
+      </c>
+      <c r="K34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1836,28 +1734,25 @@
         <v>160</v>
       </c>
       <c r="F35">
-        <v>11.25</v>
+        <v>9.82</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>9.1</v>
       </c>
       <c r="H35">
         <v>160</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J35">
-        <v>12</v>
-      </c>
-      <c r="K35">
-        <v>0.06250937500000001</v>
-      </c>
-      <c r="L35" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12">
+        <v>0.5257615783691407</v>
+      </c>
+      <c r="K35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1877,25 +1772,22 @@
         <v>10.95</v>
       </c>
       <c r="G36">
-        <v>0</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H36">
         <v>165</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J36">
-        <v>6</v>
-      </c>
-      <c r="K36">
-        <v>0.06250937500000001</v>
-      </c>
-      <c r="L36" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12">
+        <v>0.5275926147460939</v>
+      </c>
+      <c r="K36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1912,28 +1804,25 @@
         <v>170</v>
       </c>
       <c r="F37">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <v>8.25</v>
       </c>
       <c r="H37">
         <v>170</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J37">
-        <v>2</v>
-      </c>
-      <c r="K37">
-        <v>0.12500875</v>
-      </c>
-      <c r="L37" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12">
+        <v>0.5291184783935547</v>
+      </c>
+      <c r="K37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1953,25 +1842,22 @@
         <v>10</v>
       </c>
       <c r="G38">
-        <v>0</v>
+        <v>7.9</v>
       </c>
       <c r="H38">
         <v>175</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38">
-        <v>1</v>
-      </c>
-      <c r="K38">
-        <v>0.12500875</v>
-      </c>
-      <c r="L38" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12">
+        <v>0.527470545654297</v>
+      </c>
+      <c r="K38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1988,28 +1874,25 @@
         <v>180</v>
       </c>
       <c r="F39">
-        <v>9.15</v>
+        <v>7.55</v>
       </c>
       <c r="G39">
-        <v>0</v>
+        <v>7.55</v>
       </c>
       <c r="H39">
         <v>180</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J39">
-        <v>37</v>
-      </c>
-      <c r="K39">
-        <v>0.12500875</v>
-      </c>
-      <c r="L39" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12">
+        <v>0.5346726220703125</v>
+      </c>
+      <c r="K39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -2026,24 +1909,21 @@
         <v>185</v>
       </c>
       <c r="F40">
-        <v>8</v>
+        <v>7.7</v>
       </c>
       <c r="G40">
-        <v>0</v>
+        <v>7.1</v>
       </c>
       <c r="H40">
         <v>185</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="J40">
-        <v>221</v>
-      </c>
-      <c r="K40">
-        <v>0.12500875</v>
-      </c>
-      <c r="L40" t="b">
+        <v>0.5302476174926759</v>
+      </c>
+      <c r="K40" t="b">
         <v>0</v>
       </c>
     </row>
